--- a/report.xlsx
+++ b/report.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Front Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Company Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Front_Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Company_Report" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>List of contents:</t>
   </si>
@@ -27,6 +27,27 @@
     <t>Summary</t>
   </si>
   <si>
+    <t>Company Details</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>ACME Corp.</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -57,17 +78,14 @@
     <t>mean_stock_price</t>
   </si>
   <si>
-    <t>Back to Front Page</t>
-  </si>
-  <si>
-    <t>Company information</t>
+    <t>Back_to_Front_Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +101,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3B3B3B"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
@@ -98,7 +123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4C4C4"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,12 +144,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -136,8 +162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:D4" totalsRowShown="0">
-  <autoFilter ref="A2:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A6:D8" totalsRowShown="0">
+  <autoFilter ref="A6:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
@@ -450,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -479,10 +505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -495,75 +521,96 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>152.501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>152.501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
         <v>45.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Front Page!A1:A1" display="Back to Front Page"/>
+    <hyperlink ref="A1" location="Front_Page!A1:A1" display="Back_to_Front_Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -589,20 +636,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>99</v>
@@ -610,7 +657,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>98.8105</v>
@@ -618,7 +665,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Front Page!A1:A1" display="Back to Front Page"/>
+    <hyperlink ref="A1" location="Front_Page!A1:A1" display="Back_to_Front_Page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
